--- a/config/Report_Config.xlsx
+++ b/config/Report_Config.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfeaga619\Documents\GitHub\ARCNet\config\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D64966-9E45-4F17-B30A-EAD028938615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="7110" yWindow="3075" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -943,15 +949,9 @@
     <t>OR_TOToLocCode</t>
   </si>
   <si>
-    <t>OR_toOrgName</t>
-  </si>
-  <si>
     <t>OR_DestSubInv</t>
   </si>
   <si>
-    <t>OR_Task#</t>
-  </si>
-  <si>
     <t>OR_ShipDate</t>
   </si>
   <si>
@@ -1058,13 +1058,19 @@
   </si>
   <si>
     <t>TONo</t>
+  </si>
+  <si>
+    <t>OR_ToOrgName</t>
+  </si>
+  <si>
+    <t>OR_TaskNo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1127,13 +1133,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1171,7 +1185,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1205,6 +1219,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1239,9 +1254,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1414,14 +1430,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="B140" sqref="B140"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1435,7 +1457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1443,13 +1465,13 @@
         <v>189</v>
       </c>
       <c r="C2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1457,13 +1479,13 @@
         <v>190</v>
       </c>
       <c r="C3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1471,13 +1493,13 @@
         <v>190</v>
       </c>
       <c r="C4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D4" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1485,13 +1507,13 @@
         <v>190</v>
       </c>
       <c r="C5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D5" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1499,13 +1521,13 @@
         <v>190</v>
       </c>
       <c r="C6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1513,13 +1535,13 @@
         <v>191</v>
       </c>
       <c r="C7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D7" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1527,13 +1549,13 @@
         <v>191</v>
       </c>
       <c r="C8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D8" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1541,13 +1563,13 @@
         <v>192</v>
       </c>
       <c r="C9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D9" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1555,13 +1577,13 @@
         <v>193</v>
       </c>
       <c r="C10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D10" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1569,13 +1591,13 @@
         <v>194</v>
       </c>
       <c r="C11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D11" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1583,13 +1605,13 @@
         <v>195</v>
       </c>
       <c r="C12" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D12" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1597,13 +1619,13 @@
         <v>196</v>
       </c>
       <c r="C13" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D13" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1611,13 +1633,13 @@
         <v>197</v>
       </c>
       <c r="C14" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D14" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1625,13 +1647,13 @@
         <v>197</v>
       </c>
       <c r="C15" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D15" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1639,13 +1661,13 @@
         <v>198</v>
       </c>
       <c r="C16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D16" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1653,13 +1675,13 @@
         <v>198</v>
       </c>
       <c r="C17" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D17" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1667,13 +1689,13 @@
         <v>199</v>
       </c>
       <c r="C18" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D18" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1681,13 +1703,13 @@
         <v>200</v>
       </c>
       <c r="C19" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D19" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1695,13 +1717,13 @@
         <v>201</v>
       </c>
       <c r="C20" t="s">
+        <v>319</v>
+      </c>
+      <c r="D20" t="s">
         <v>321</v>
       </c>
-      <c r="D20" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1709,13 +1731,13 @@
         <v>202</v>
       </c>
       <c r="C21" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D21" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1723,13 +1745,13 @@
         <v>202</v>
       </c>
       <c r="C22" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D22" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1737,13 +1759,13 @@
         <v>202</v>
       </c>
       <c r="C23" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D23" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1751,13 +1773,13 @@
         <v>202</v>
       </c>
       <c r="C24" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D24" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1765,13 +1787,13 @@
         <v>202</v>
       </c>
       <c r="C25" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D25" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1779,13 +1801,13 @@
         <v>203</v>
       </c>
       <c r="C26" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D26" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1793,13 +1815,13 @@
         <v>203</v>
       </c>
       <c r="C27" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D27" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1807,13 +1829,13 @@
         <v>203</v>
       </c>
       <c r="C28" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D28" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1821,13 +1843,13 @@
         <v>204</v>
       </c>
       <c r="C29" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D29" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1835,13 +1857,13 @@
         <v>205</v>
       </c>
       <c r="C30" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D30" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1849,13 +1871,13 @@
         <v>205</v>
       </c>
       <c r="C31" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D31" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -1863,13 +1885,13 @@
         <v>206</v>
       </c>
       <c r="C32" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D32" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -1877,13 +1899,13 @@
         <v>207</v>
       </c>
       <c r="C33" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D33" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -1891,13 +1913,13 @@
         <v>208</v>
       </c>
       <c r="C34" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D34" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1905,13 +1927,13 @@
         <v>209</v>
       </c>
       <c r="C35" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D35" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -1919,13 +1941,13 @@
         <v>209</v>
       </c>
       <c r="C36" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D36" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -1933,13 +1955,13 @@
         <v>210</v>
       </c>
       <c r="C37" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D37" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -1947,13 +1969,13 @@
         <v>211</v>
       </c>
       <c r="C38" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D38" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -1961,13 +1983,13 @@
         <v>212</v>
       </c>
       <c r="C39" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D39" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -1975,13 +1997,13 @@
         <v>213</v>
       </c>
       <c r="C40" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D40" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -1989,13 +2011,13 @@
         <v>214</v>
       </c>
       <c r="C41" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D41" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -2003,13 +2025,13 @@
         <v>215</v>
       </c>
       <c r="C42" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D42" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -2017,13 +2039,13 @@
         <v>216</v>
       </c>
       <c r="C43" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D43" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -2031,13 +2053,13 @@
         <v>217</v>
       </c>
       <c r="C44" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D44" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -2045,13 +2067,13 @@
         <v>218</v>
       </c>
       <c r="C45" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D45" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -2059,13 +2081,13 @@
         <v>219</v>
       </c>
       <c r="C46" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D46" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -2073,13 +2095,13 @@
         <v>220</v>
       </c>
       <c r="C47" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D47" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -2087,13 +2109,13 @@
         <v>221</v>
       </c>
       <c r="C48" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D48" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -2101,13 +2123,13 @@
         <v>221</v>
       </c>
       <c r="C49" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D49" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -2115,13 +2137,13 @@
         <v>222</v>
       </c>
       <c r="C50" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D50" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -2129,13 +2151,13 @@
         <v>223</v>
       </c>
       <c r="C51" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D51" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -2143,13 +2165,13 @@
         <v>223</v>
       </c>
       <c r="C52" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D52" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -2157,13 +2179,13 @@
         <v>223</v>
       </c>
       <c r="C53" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D53" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -2171,13 +2193,13 @@
         <v>223</v>
       </c>
       <c r="C54" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D54" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -2185,13 +2207,13 @@
         <v>223</v>
       </c>
       <c r="C55" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D55" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -2199,13 +2221,13 @@
         <v>224</v>
       </c>
       <c r="C56" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D56" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -2213,13 +2235,13 @@
         <v>225</v>
       </c>
       <c r="C57" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D57" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -2227,13 +2249,13 @@
         <v>226</v>
       </c>
       <c r="C58" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D58" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -2241,13 +2263,13 @@
         <v>227</v>
       </c>
       <c r="C59" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D59" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -2255,13 +2277,13 @@
         <v>228</v>
       </c>
       <c r="C60" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D60" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -2269,13 +2291,13 @@
         <v>228</v>
       </c>
       <c r="C61" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D61" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -2283,13 +2305,13 @@
         <v>228</v>
       </c>
       <c r="C62" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D62" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -2297,13 +2319,13 @@
         <v>229</v>
       </c>
       <c r="C63" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D63" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -2311,13 +2333,13 @@
         <v>229</v>
       </c>
       <c r="C64" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D64" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -2325,13 +2347,13 @@
         <v>230</v>
       </c>
       <c r="C65" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D65" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -2339,13 +2361,13 @@
         <v>231</v>
       </c>
       <c r="C66" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D66" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -2353,13 +2375,13 @@
         <v>231</v>
       </c>
       <c r="C67" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D67" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -2367,13 +2389,13 @@
         <v>232</v>
       </c>
       <c r="C68" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D68" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -2381,13 +2403,13 @@
         <v>233</v>
       </c>
       <c r="C69" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D69" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>72</v>
       </c>
@@ -2395,13 +2417,13 @@
         <v>234</v>
       </c>
       <c r="C70" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D70" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -2409,13 +2431,13 @@
         <v>235</v>
       </c>
       <c r="C71" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D71" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -2423,13 +2445,13 @@
         <v>235</v>
       </c>
       <c r="C72" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D72" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>75</v>
       </c>
@@ -2437,13 +2459,13 @@
         <v>236</v>
       </c>
       <c r="C73" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D73" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -2451,13 +2473,13 @@
         <v>237</v>
       </c>
       <c r="C74" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D74" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -2465,13 +2487,13 @@
         <v>237</v>
       </c>
       <c r="C75" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D75" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>78</v>
       </c>
@@ -2479,13 +2501,13 @@
         <v>238</v>
       </c>
       <c r="C76" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D76" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>79</v>
       </c>
@@ -2493,13 +2515,13 @@
         <v>238</v>
       </c>
       <c r="C77" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D77" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>80</v>
       </c>
@@ -2507,13 +2529,13 @@
         <v>238</v>
       </c>
       <c r="C78" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D78" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -2521,13 +2543,13 @@
         <v>239</v>
       </c>
       <c r="C79" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D79" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -2535,13 +2557,13 @@
         <v>239</v>
       </c>
       <c r="C80" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D80" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>83</v>
       </c>
@@ -2549,13 +2571,13 @@
         <v>240</v>
       </c>
       <c r="C81" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D81" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>84</v>
       </c>
@@ -2563,13 +2585,13 @@
         <v>240</v>
       </c>
       <c r="C82" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D82" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -2577,13 +2599,13 @@
         <v>240</v>
       </c>
       <c r="C83" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D83" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -2591,13 +2613,13 @@
         <v>241</v>
       </c>
       <c r="C84" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D84" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -2605,13 +2627,13 @@
         <v>242</v>
       </c>
       <c r="C85" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D85" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -2619,13 +2641,13 @@
         <v>243</v>
       </c>
       <c r="C86" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D86" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>89</v>
       </c>
@@ -2633,13 +2655,13 @@
         <v>244</v>
       </c>
       <c r="C87" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D87" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>90</v>
       </c>
@@ -2647,13 +2669,13 @@
         <v>245</v>
       </c>
       <c r="C88" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D88" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>91</v>
       </c>
@@ -2661,13 +2683,13 @@
         <v>246</v>
       </c>
       <c r="C89" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D89" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>92</v>
       </c>
@@ -2675,13 +2697,13 @@
         <v>247</v>
       </c>
       <c r="C90" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D90" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>93</v>
       </c>
@@ -2689,13 +2711,13 @@
         <v>247</v>
       </c>
       <c r="C91" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D91" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>94</v>
       </c>
@@ -2703,13 +2725,13 @@
         <v>247</v>
       </c>
       <c r="C92" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D92" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>95</v>
       </c>
@@ -2717,13 +2739,13 @@
         <v>248</v>
       </c>
       <c r="C93" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D93" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>96</v>
       </c>
@@ -2731,13 +2753,13 @@
         <v>248</v>
       </c>
       <c r="C94" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D94" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>97</v>
       </c>
@@ -2745,13 +2767,13 @@
         <v>248</v>
       </c>
       <c r="C95" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D95" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>98</v>
       </c>
@@ -2759,13 +2781,13 @@
         <v>248</v>
       </c>
       <c r="C96" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D96" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>99</v>
       </c>
@@ -2773,13 +2795,13 @@
         <v>248</v>
       </c>
       <c r="C97" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D97" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>100</v>
       </c>
@@ -2787,13 +2809,13 @@
         <v>248</v>
       </c>
       <c r="C98" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D98" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>101</v>
       </c>
@@ -2801,13 +2823,13 @@
         <v>249</v>
       </c>
       <c r="C99" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D99" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>102</v>
       </c>
@@ -2815,13 +2837,13 @@
         <v>250</v>
       </c>
       <c r="C100" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D100" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>103</v>
       </c>
@@ -2829,13 +2851,13 @@
         <v>250</v>
       </c>
       <c r="C101" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D101" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>104</v>
       </c>
@@ -2843,13 +2865,13 @@
         <v>251</v>
       </c>
       <c r="C102" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D102" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>105</v>
       </c>
@@ -2857,13 +2879,13 @@
         <v>252</v>
       </c>
       <c r="C103" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D103" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>106</v>
       </c>
@@ -2871,13 +2893,13 @@
         <v>253</v>
       </c>
       <c r="C104" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D104" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>107</v>
       </c>
@@ -2885,13 +2907,13 @@
         <v>254</v>
       </c>
       <c r="C105" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D105" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>108</v>
       </c>
@@ -2899,13 +2921,13 @@
         <v>255</v>
       </c>
       <c r="C106" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D106" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>109</v>
       </c>
@@ -2913,13 +2935,13 @@
         <v>256</v>
       </c>
       <c r="C107" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D107" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>110</v>
       </c>
@@ -2927,13 +2949,13 @@
         <v>257</v>
       </c>
       <c r="C108" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D108" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>111</v>
       </c>
@@ -2941,13 +2963,13 @@
         <v>258</v>
       </c>
       <c r="C109" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D109" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>112</v>
       </c>
@@ -2955,13 +2977,13 @@
         <v>259</v>
       </c>
       <c r="C110" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D110" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>113</v>
       </c>
@@ -2969,13 +2991,13 @@
         <v>260</v>
       </c>
       <c r="C111" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D111" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>114</v>
       </c>
@@ -2983,13 +3005,13 @@
         <v>260</v>
       </c>
       <c r="C112" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D112" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>115</v>
       </c>
@@ -2997,13 +3019,13 @@
         <v>260</v>
       </c>
       <c r="C113" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D113" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>116</v>
       </c>
@@ -3011,13 +3033,13 @@
         <v>261</v>
       </c>
       <c r="C114" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D114" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>117</v>
       </c>
@@ -3025,13 +3047,13 @@
         <v>262</v>
       </c>
       <c r="C115" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D115" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>118</v>
       </c>
@@ -3039,13 +3061,13 @@
         <v>262</v>
       </c>
       <c r="C116" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D116" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>119</v>
       </c>
@@ -3053,13 +3075,13 @@
         <v>263</v>
       </c>
       <c r="C117" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D117" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>120</v>
       </c>
@@ -3067,13 +3089,13 @@
         <v>264</v>
       </c>
       <c r="C118" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D118" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>121</v>
       </c>
@@ -3081,13 +3103,13 @@
         <v>265</v>
       </c>
       <c r="C119" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D119" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>122</v>
       </c>
@@ -3095,13 +3117,13 @@
         <v>266</v>
       </c>
       <c r="C120" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D120" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>123</v>
       </c>
@@ -3109,13 +3131,13 @@
         <v>267</v>
       </c>
       <c r="C121" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D121" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>124</v>
       </c>
@@ -3123,13 +3145,13 @@
         <v>249</v>
       </c>
       <c r="C122" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D122" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>125</v>
       </c>
@@ -3137,13 +3159,13 @@
         <v>268</v>
       </c>
       <c r="C123" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D123" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>126</v>
       </c>
@@ -3151,13 +3173,13 @@
         <v>269</v>
       </c>
       <c r="C124" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D124" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>127</v>
       </c>
@@ -3165,13 +3187,13 @@
         <v>270</v>
       </c>
       <c r="C125" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D125" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>128</v>
       </c>
@@ -3179,13 +3201,13 @@
         <v>271</v>
       </c>
       <c r="C126" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D126" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>129</v>
       </c>
@@ -3193,13 +3215,13 @@
         <v>272</v>
       </c>
       <c r="C127" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D127" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>130</v>
       </c>
@@ -3207,13 +3229,13 @@
         <v>273</v>
       </c>
       <c r="C128" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D128" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>131</v>
       </c>
@@ -3221,13 +3243,13 @@
         <v>274</v>
       </c>
       <c r="C129" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D129" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>132</v>
       </c>
@@ -3235,13 +3257,13 @@
         <v>275</v>
       </c>
       <c r="C130" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D130" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>133</v>
       </c>
@@ -3249,13 +3271,13 @@
         <v>239</v>
       </c>
       <c r="C131" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D131" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>134</v>
       </c>
@@ -3263,13 +3285,13 @@
         <v>240</v>
       </c>
       <c r="C132" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D132" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>135</v>
       </c>
@@ -3277,13 +3299,13 @@
         <v>192</v>
       </c>
       <c r="C133" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D133" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>136</v>
       </c>
@@ -3291,13 +3313,13 @@
         <v>276</v>
       </c>
       <c r="C134" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D134" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>137</v>
       </c>
@@ -3305,13 +3327,13 @@
         <v>228</v>
       </c>
       <c r="C135" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D135" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>138</v>
       </c>
@@ -3319,13 +3341,13 @@
         <v>277</v>
       </c>
       <c r="C136" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D136" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>139</v>
       </c>
@@ -3333,27 +3355,27 @@
         <v>278</v>
       </c>
       <c r="C137" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D137" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C138" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D138" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>141</v>
       </c>
@@ -3361,13 +3383,13 @@
         <v>248</v>
       </c>
       <c r="C139" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D139" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>142</v>
       </c>
@@ -3375,13 +3397,13 @@
         <v>198</v>
       </c>
       <c r="C140" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D140" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>143</v>
       </c>
@@ -3389,13 +3411,13 @@
         <v>279</v>
       </c>
       <c r="C141" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D141" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>144</v>
       </c>
@@ -3403,13 +3425,13 @@
         <v>280</v>
       </c>
       <c r="C142" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D142" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>145</v>
       </c>
@@ -3417,13 +3439,13 @@
         <v>190</v>
       </c>
       <c r="C143" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D143" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>146</v>
       </c>
@@ -3431,13 +3453,13 @@
         <v>281</v>
       </c>
       <c r="C144" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D144" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>147</v>
       </c>
@@ -3445,13 +3467,13 @@
         <v>282</v>
       </c>
       <c r="C145" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D145" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>148</v>
       </c>
@@ -3459,13 +3481,13 @@
         <v>283</v>
       </c>
       <c r="C146" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D146" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>149</v>
       </c>
@@ -3473,13 +3495,13 @@
         <v>284</v>
       </c>
       <c r="C147" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D147" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>150</v>
       </c>
@@ -3487,13 +3509,13 @@
         <v>285</v>
       </c>
       <c r="C148" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D148" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>151</v>
       </c>
@@ -3501,13 +3523,13 @@
         <v>286</v>
       </c>
       <c r="C149" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D149" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>152</v>
       </c>
@@ -3515,13 +3537,13 @@
         <v>287</v>
       </c>
       <c r="C150" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D150" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>153</v>
       </c>
@@ -3529,13 +3551,13 @@
         <v>288</v>
       </c>
       <c r="C151" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D151" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>154</v>
       </c>
@@ -3543,13 +3565,13 @@
         <v>289</v>
       </c>
       <c r="C152" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D152" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>155</v>
       </c>
@@ -3557,13 +3579,13 @@
         <v>290</v>
       </c>
       <c r="C153" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D153" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>156</v>
       </c>
@@ -3571,13 +3593,13 @@
         <v>291</v>
       </c>
       <c r="C154" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D154" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>157</v>
       </c>
@@ -3585,13 +3607,13 @@
         <v>292</v>
       </c>
       <c r="C155" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D155" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>158</v>
       </c>
@@ -3599,13 +3621,13 @@
         <v>202</v>
       </c>
       <c r="C156" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D156" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>159</v>
       </c>
@@ -3613,13 +3635,13 @@
         <v>293</v>
       </c>
       <c r="C157" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D157" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>160</v>
       </c>
@@ -3627,13 +3649,13 @@
         <v>260</v>
       </c>
       <c r="C158" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D158" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>161</v>
       </c>
@@ -3641,13 +3663,13 @@
         <v>294</v>
       </c>
       <c r="C159" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D159" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>162</v>
       </c>
@@ -3655,13 +3677,13 @@
         <v>295</v>
       </c>
       <c r="C160" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D160" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>163</v>
       </c>
@@ -3669,13 +3691,13 @@
         <v>296</v>
       </c>
       <c r="C161" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D161" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>164</v>
       </c>
@@ -3683,13 +3705,13 @@
         <v>259</v>
       </c>
       <c r="C162" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D162" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>165</v>
       </c>
@@ -3697,13 +3719,13 @@
         <v>297</v>
       </c>
       <c r="C163" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D163" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>166</v>
       </c>
@@ -3711,13 +3733,13 @@
         <v>298</v>
       </c>
       <c r="C164" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D164" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>167</v>
       </c>
@@ -3725,13 +3747,13 @@
         <v>299</v>
       </c>
       <c r="C165" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D165" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>168</v>
       </c>
@@ -3739,13 +3761,13 @@
         <v>285</v>
       </c>
       <c r="C166" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D166" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>169</v>
       </c>
@@ -3753,13 +3775,13 @@
         <v>288</v>
       </c>
       <c r="C167" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D167" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>170</v>
       </c>
@@ -3767,13 +3789,13 @@
         <v>300</v>
       </c>
       <c r="C168" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D168" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>171</v>
       </c>
@@ -3781,13 +3803,13 @@
         <v>238</v>
       </c>
       <c r="C169" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D169" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>172</v>
       </c>
@@ -3795,13 +3817,13 @@
         <v>301</v>
       </c>
       <c r="C170" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D170" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>173</v>
       </c>
@@ -3809,13 +3831,13 @@
         <v>302</v>
       </c>
       <c r="C171" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D171" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>174</v>
       </c>
@@ -3823,13 +3845,13 @@
         <v>303</v>
       </c>
       <c r="C172" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D172" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>175</v>
       </c>
@@ -3837,13 +3859,13 @@
         <v>304</v>
       </c>
       <c r="C173" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D173" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>176</v>
       </c>
@@ -3851,13 +3873,13 @@
         <v>305</v>
       </c>
       <c r="C174" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D174" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>177</v>
       </c>
@@ -3865,13 +3887,13 @@
         <v>306</v>
       </c>
       <c r="C175" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D175" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>178</v>
       </c>
@@ -3879,13 +3901,13 @@
         <v>307</v>
       </c>
       <c r="C176" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D176" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>179</v>
       </c>
@@ -3893,13 +3915,13 @@
         <v>308</v>
       </c>
       <c r="C177" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D177" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>180</v>
       </c>
@@ -3907,13 +3929,13 @@
         <v>308</v>
       </c>
       <c r="C178" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D178" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>181</v>
       </c>
@@ -3921,108 +3943,108 @@
         <v>261</v>
       </c>
       <c r="C179" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D179" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>182</v>
       </c>
       <c r="B180" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="C180" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D180" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>183</v>
       </c>
       <c r="B181" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C181" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D181" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>184</v>
       </c>
       <c r="B182" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="C182" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D182" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>185</v>
       </c>
       <c r="B183" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C183" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D183" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>186</v>
       </c>
       <c r="B184" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C184" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D184" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>187</v>
       </c>
       <c r="B185" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C185" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D185" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>188</v>
       </c>
       <c r="B186" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C186" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D186" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
